--- a/y_prediction.xlsx
+++ b/y_prediction.xlsx
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.7340784072876</v>
+        <v>13.8809986114502</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.3854455947876</v>
+        <v>7.95662784576416</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -406,7 +406,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.717073917388916</v>
+        <v>5.955420017242432</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.12401676177979</v>
+        <v>6.767120838165283</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.9938325881958</v>
+        <v>7.603854179382324</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.41903209686279</v>
+        <v>11.47830581665039</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.38803768157959</v>
+        <v>13.53664112091064</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.054262161254883</v>
+        <v>10.49045848846436</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.922260284423828</v>
+        <v>4.737107753753662</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -462,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.83757781982422</v>
+        <v>6.079762935638428</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -470,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.55265140533447</v>
+        <v>4.378615856170654</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -478,7 +478,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.683326721191406</v>
+        <v>7.389666080474854</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.48312664031982</v>
+        <v>10.40564441680908</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.16646957397461</v>
+        <v>10.42655563354492</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -502,7 +502,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.57286548614502</v>
+        <v>10.09898853302002</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -510,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.11720609664917</v>
+        <v>6.089284420013428</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -518,7 +518,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.56603908538818</v>
+        <v>4.424148559570312</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -526,7 +526,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.53540229797363</v>
+        <v>13.29117012023926</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -534,7 +534,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.30655670166016</v>
+        <v>19.33496475219727</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.94198894500732</v>
+        <v>6.577813625335693</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -550,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.99962329864502</v>
+        <v>5.151782989501953</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -558,7 +558,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.85213470458984</v>
+        <v>4.395680904388428</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -566,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.28206729888916</v>
+        <v>6.069608688354492</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -574,7 +574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.95817232131958</v>
+        <v>6.620934963226318</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -582,7 +582,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>10.30211162567139</v>
+        <v>7.318948745727539</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>8.785508155822754</v>
+        <v>11.81636333465576</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -598,7 +598,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>15.61180591583252</v>
+        <v>8.639409065246582</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -606,7 +606,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>16.32898330688477</v>
+        <v>11.24605464935303</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -614,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>18.95686149597168</v>
+        <v>14.32633876800537</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>14.73952484130859</v>
+        <v>11.50711727142334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>10.84650421142578</v>
+        <v>15.95943927764893</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -638,7 +638,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>11.24222278594971</v>
+        <v>6.54820442199707</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -646,7 +646,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>13.41308784484863</v>
+        <v>19.80498123168945</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -654,7 +654,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>18.12321472167969</v>
+        <v>25.43582534790039</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -662,7 +662,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>11.22954750061035</v>
+        <v>13.52932548522949</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -670,7 +670,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>11.06840801239014</v>
+        <v>7.902271747589111</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -678,7 +678,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6.800952911376953</v>
+        <v>6.021476745605469</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -686,7 +686,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>12.38935089111328</v>
+        <v>6.838600158691406</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -694,7 +694,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>13.49728393554688</v>
+        <v>7.617969036102295</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -702,7 +702,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>13.71642017364502</v>
+        <v>11.15285015106201</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -710,7 +710,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>12.49695301055908</v>
+        <v>13.29177665710449</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -718,7 +718,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>9.073392868041992</v>
+        <v>10.23600673675537</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -726,7 +726,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.931249856948853</v>
+        <v>4.950057506561279</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -734,7 +734,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>10.58390522003174</v>
+        <v>6.18470287322998</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -742,7 +742,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>10.05390071868896</v>
+        <v>4.31477689743042</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -750,7 +750,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5.886467933654785</v>
+        <v>7.165870189666748</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -758,7 +758,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>14.71814346313477</v>
+        <v>10.13792991638184</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -766,7 +766,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>17.11821556091309</v>
+        <v>9.974912643432617</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -774,7 +774,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>14.91587448120117</v>
+        <v>9.893525123596191</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -782,7 +782,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.580786228179932</v>
+        <v>5.997543811798096</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -790,7 +790,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>15.90250587463379</v>
+        <v>4.566448211669922</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -798,7 +798,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>16.22953796386719</v>
+        <v>12.97424793243408</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -806,7 +806,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>12.79185390472412</v>
+        <v>19.20149993896484</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -814,7 +814,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>10.6183385848999</v>
+        <v>6.523789882659912</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -822,7 +822,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>10.92308521270752</v>
+        <v>5.140477657318115</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -830,7 +830,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>11.40588855743408</v>
+        <v>4.459598064422607</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -838,7 +838,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>10.98503589630127</v>
+        <v>6.025604724884033</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -846,7 +846,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>8.036754608154297</v>
+        <v>6.619915008544922</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -854,7 +854,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>9.096149444580078</v>
+        <v>7.2478346824646</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -862,7 +862,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>9.026552200317383</v>
+        <v>11.04336071014404</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -870,7 +870,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>13.01296901702881</v>
+        <v>8.525527000427246</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -878,7 +878,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>16.67765426635742</v>
+        <v>11.04471969604492</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -886,7 +886,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>16.94958877563477</v>
+        <v>13.73667907714844</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -894,7 +894,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>14.65716552734375</v>
+        <v>11.18331527709961</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -902,7 +902,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>10.64328098297119</v>
+        <v>15.89662742614746</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -910,7 +910,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>9.885561943054199</v>
+        <v>6.532844543457031</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -918,7 +918,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>11.50492763519287</v>
+        <v>19.44545364379883</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -926,7 +926,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>14.7463207244873</v>
+        <v>24.73703193664551</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -934,7 +934,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>11.37626171112061</v>
+        <v>13.4672269821167</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -942,7 +942,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>10.6452054977417</v>
+        <v>7.831560611724854</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -950,7 +950,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6.689661026000977</v>
+        <v>6.095869064331055</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -958,7 +958,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>12.46042823791504</v>
+        <v>6.864828586578369</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -966,7 +966,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>12.8285961151123</v>
+        <v>7.593636989593506</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -974,7 +974,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>12.78127384185791</v>
+        <v>11.05364608764648</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -982,7 +982,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>12.86518096923828</v>
+        <v>13.05564117431641</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -990,7 +990,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>9.73786735534668</v>
+        <v>10.1266508102417</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -998,7 +998,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3.945497989654541</v>
+        <v>5.177108287811279</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>10.1747350692749</v>
+        <v>6.270837306976318</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>9.004464149475098</v>
+        <v>4.252202033996582</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6.28728199005127</v>
+        <v>6.946003913879395</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>14.43929672241211</v>
+        <v>9.864738464355469</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>16.1559886932373</v>
+        <v>9.410311698913574</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>14.886887550354</v>
+        <v>9.71759033203125</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5.447003841400146</v>
+        <v>5.906689167022705</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>13.11125659942627</v>
+        <v>4.805705070495605</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>16.0885009765625</v>
+        <v>12.64804077148438</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>12.33454322814941</v>
+        <v>19.15567207336426</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>10.26038932800293</v>
+        <v>6.473563671112061</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>10.72667503356934</v>
+        <v>5.091256618499756</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>11.53893947601318</v>
+        <v>4.499393939971924</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>10.96871662139893</v>
+        <v>6.052968978881836</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>8.077991485595703</v>
+        <v>6.607266902923584</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>8.414040565490723</v>
+        <v>7.175524711608887</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>9.009664535522461</v>
+        <v>10.60240840911865</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>11.08544254302979</v>
+        <v>8.40052318572998</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>16.31133270263672</v>
+        <v>10.70535087585449</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>14.25123691558838</v>
+        <v>13.24186706542969</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>13.12438678741455</v>
+        <v>11.0146427154541</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>10.58473491668701</v>
+        <v>15.82266807556152</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>9.890063285827637</v>
+        <v>6.48128604888916</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>10.37007427215576</v>
+        <v>19.08477592468262</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>12.57071113586426</v>
+        <v>23.96520614624023</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>11.65828132629395</v>
+        <v>13.74034023284912</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>10.70360946655273</v>
+        <v>7.841311931610107</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6.712057113647461</v>
+        <v>6.168068885803223</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>12.09603309631348</v>
+        <v>6.835846900939941</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>12.56362342834473</v>
+        <v>7.528514862060547</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>10.35196876525879</v>
+        <v>10.78582572937012</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>12.99033451080322</v>
+        <v>12.74608516693115</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>10.00134563446045</v>
+        <v>10.11339473724365</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>4.783513069152832</v>
+        <v>5.427739143371582</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>9.344485282897949</v>
+        <v>6.331255912780762</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7.160605907440186</v>
+        <v>4.204568862915039</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6.083680629730225</v>
+        <v>6.737100601196289</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>13.24258518218994</v>
+        <v>9.57958984375</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>14.877121925354</v>
+        <v>8.886554718017578</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>14.22961807250977</v>
+        <v>9.530409812927246</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5.194126605987549</v>
+        <v>5.814504623413086</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>9.39319896697998</v>
+        <v>4.861351013183594</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>16.03801345825195</v>
+        <v>12.26574897766113</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>11.40594387054443</v>
+        <v>18.90688514709473</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>9.984151840209961</v>
+        <v>6.423656940460205</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>10.68394088745117</v>
+        <v>5.126580238342285</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>11.44256401062012</v>
+        <v>4.519901275634766</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>10.64732265472412</v>
+        <v>6.120871543884277</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>8.018496513366699</v>
+        <v>6.603997707366943</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7.80933952331543</v>
+        <v>7.106751918792725</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>9.583318710327148</v>
+        <v>10.43985939025879</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>10.55798149108887</v>
+        <v>8.278443336486816</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>16.01856422424316</v>
+        <v>10.38094711303711</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>12.27727699279785</v>
+        <v>12.79089641571045</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>11.76810169219971</v>
+        <v>10.76794719696045</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>10.54654884338379</v>
+        <v>15.74698162078857</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>9.898434638977051</v>
+        <v>6.446595668792725</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>10.56779003143311</v>
+        <v>18.74972724914551</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>10.96787452697754</v>
+        <v>23.27029037475586</v>
       </c>
     </row>
   </sheetData>

--- a/y_prediction.xlsx
+++ b/y_prediction.xlsx
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.8809986114502</v>
+        <v>14.19726943969727</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.95662784576416</v>
+        <v>7.934562683105469</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -406,7 +406,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.955420017242432</v>
+        <v>5.874011516571045</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.767120838165283</v>
+        <v>6.663724422454834</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.603854179382324</v>
+        <v>7.561977863311768</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.47830581665039</v>
+        <v>11.536208152771</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.53664112091064</v>
+        <v>13.69966888427734</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.49045848846436</v>
+        <v>10.80807781219482</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.737107753753662</v>
+        <v>4.527147769927979</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -462,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.079762935638428</v>
+        <v>5.923291206359863</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -470,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.378615856170654</v>
+        <v>4.451257228851318</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -478,7 +478,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.389666080474854</v>
+        <v>7.551928043365479</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.40564441680908</v>
+        <v>10.58013725280762</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.42655563354492</v>
+        <v>10.74296760559082</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -502,7 +502,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.09898853302002</v>
+        <v>10.26916980743408</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -510,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.089284420013428</v>
+        <v>6.098263263702393</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -518,7 +518,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.424148559570312</v>
+        <v>4.29344367980957</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -526,7 +526,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.29117012023926</v>
+        <v>13.55679416656494</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -534,7 +534,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.33496475219727</v>
+        <v>19.59993553161621</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.577813625335693</v>
+        <v>6.560589790344238</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -550,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.151782989501953</v>
+        <v>5.0816330909729</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -558,7 +558,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.395680904388428</v>
+        <v>4.274739742279053</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -566,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.069608688354492</v>
+        <v>6.05767822265625</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -574,7 +574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.620934963226318</v>
+        <v>6.501260280609131</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -582,7 +582,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7.318948745727539</v>
+        <v>7.32531213760376</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>11.81636333465576</v>
+        <v>12.09658622741699</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -598,7 +598,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>8.639409065246582</v>
+        <v>8.651673316955566</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -606,7 +606,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>11.24605464935303</v>
+        <v>11.36209487915039</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -614,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>14.32633876800537</v>
+        <v>14.84198379516602</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>11.50711727142334</v>
+        <v>11.55424976348877</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>15.95943927764893</v>
+        <v>16.05239677429199</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -638,7 +638,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6.54820442199707</v>
+        <v>6.340110778808594</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -646,7 +646,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>19.80498123168945</v>
+        <v>19.92737579345703</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -654,7 +654,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>25.43582534790039</v>
+        <v>25.71750259399414</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -662,7 +662,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>13.52932548522949</v>
+        <v>14.04750919342041</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -670,7 +670,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7.902271747589111</v>
+        <v>7.858399868011475</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -678,7 +678,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6.021476745605469</v>
+        <v>5.839068412780762</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -686,7 +686,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6.838600158691406</v>
+        <v>6.640105247497559</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -694,7 +694,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7.617969036102295</v>
+        <v>7.540596961975098</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -702,7 +702,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>11.15285015106201</v>
+        <v>11.44162750244141</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -710,7 +710,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>13.29177665710449</v>
+        <v>13.59792041778564</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -718,7 +718,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>10.23600673675537</v>
+        <v>10.69638729095459</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -726,7 +726,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4.950057506561279</v>
+        <v>4.536865234375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -734,7 +734,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6.18470287322998</v>
+        <v>5.864860057830811</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -742,7 +742,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.31477689743042</v>
+        <v>4.458763122558594</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -750,7 +750,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7.165870189666748</v>
+        <v>7.484989643096924</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -758,7 +758,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>10.13792991638184</v>
+        <v>10.48827266693115</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -766,7 +766,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>9.974912643432617</v>
+        <v>10.67738342285156</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -774,7 +774,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>9.893525123596191</v>
+        <v>10.18572998046875</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -782,7 +782,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.997543811798096</v>
+        <v>6.018743515014648</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -790,7 +790,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.566448211669922</v>
+        <v>4.29326868057251</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -798,7 +798,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>12.97424793243408</v>
+        <v>13.44388008117676</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -806,7 +806,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>19.20149993896484</v>
+        <v>19.38541984558105</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -814,7 +814,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6.523789882659912</v>
+        <v>6.491823196411133</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -822,7 +822,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.140477657318115</v>
+        <v>5.036499500274658</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -830,7 +830,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>4.459598064422607</v>
+        <v>4.248396873474121</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -838,7 +838,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6.025604724884033</v>
+        <v>5.995769500732422</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -846,7 +846,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6.619915008544922</v>
+        <v>6.410431385040283</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -854,7 +854,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7.2478346824646</v>
+        <v>7.259796142578125</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -862,7 +862,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>11.04336071014404</v>
+        <v>11.92684364318848</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -870,7 +870,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>8.525527000427246</v>
+        <v>8.585808753967285</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -878,7 +878,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>11.04471969604492</v>
+        <v>11.28206729888916</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -886,7 +886,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>13.73667907714844</v>
+        <v>14.72089862823486</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -894,7 +894,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>11.18331527709961</v>
+        <v>11.45261573791504</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -902,7 +902,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>15.89662742614746</v>
+        <v>15.84002017974854</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -910,7 +910,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6.532844543457031</v>
+        <v>6.196976661682129</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -918,7 +918,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>19.44545364379883</v>
+        <v>19.68788909912109</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -926,7 +926,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>24.73703193664551</v>
+        <v>25.40290832519531</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -934,7 +934,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>13.4672269821167</v>
+        <v>13.89502143859863</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -942,7 +942,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7.831560611724854</v>
+        <v>7.770692825317383</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -950,7 +950,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6.095869064331055</v>
+        <v>5.808511734008789</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -958,7 +958,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6.864828586578369</v>
+        <v>6.605836868286133</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -966,7 +966,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7.593636989593506</v>
+        <v>7.507067203521729</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -974,7 +974,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>11.05364608764648</v>
+        <v>11.33576107025146</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -982,7 +982,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>13.05564117431641</v>
+        <v>13.48910808563232</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -990,7 +990,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>10.1266508102417</v>
+        <v>10.56950664520264</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -998,7 +998,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5.177108287811279</v>
+        <v>4.533520221710205</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6.270837306976318</v>
+        <v>5.803475379943848</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.252202033996582</v>
+        <v>4.458601474761963</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6.946003913879395</v>
+        <v>7.420427799224854</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>9.864738464355469</v>
+        <v>10.39489078521729</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>9.410311698913574</v>
+        <v>10.60312271118164</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>9.71759033203125</v>
+        <v>10.1016731262207</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5.906689167022705</v>
+        <v>5.935788631439209</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4.805705070495605</v>
+        <v>4.278801918029785</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>12.64804077148438</v>
+        <v>13.31656265258789</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>19.15567207336426</v>
+        <v>19.15806579589844</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6.473563671112061</v>
+        <v>6.417155742645264</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5.091256618499756</v>
+        <v>4.981106281280518</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>4.499393939971924</v>
+        <v>4.218957424163818</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6.052968978881836</v>
+        <v>5.928547859191895</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6.607266902923584</v>
+        <v>6.316637992858887</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7.175524711608887</v>
+        <v>7.186127662658691</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>10.60240840911865</v>
+        <v>11.76066780090332</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>8.40052318572998</v>
+        <v>8.511568069458008</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>10.70535087585449</v>
+        <v>11.19528484344482</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>13.24186706542969</v>
+        <v>14.59385108947754</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>11.0146427154541</v>
+        <v>11.34084892272949</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>15.82266807556152</v>
+        <v>15.6251916885376</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6.48128604888916</v>
+        <v>6.07497501373291</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>19.08477592468262</v>
+        <v>19.44630241394043</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>23.96520614624023</v>
+        <v>25.08788681030273</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>13.74034023284912</v>
+        <v>13.73633766174316</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7.841311931610107</v>
+        <v>7.671136379241943</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6.168068885803223</v>
+        <v>5.777669906616211</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6.835846900939941</v>
+        <v>6.559080600738525</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7.528514862060547</v>
+        <v>7.459660530090332</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>10.78582572937012</v>
+        <v>11.21639442443848</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>12.74608516693115</v>
+        <v>13.36867618560791</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>10.11339473724365</v>
+        <v>10.42665672302246</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5.427739143371582</v>
+        <v>4.514937877655029</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6.331255912780762</v>
+        <v>5.735990047454834</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>4.204568862915039</v>
+        <v>4.447064876556396</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6.737100601196289</v>
+        <v>7.355311393737793</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>9.57958984375</v>
+        <v>10.29762840270996</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>8.886554718017578</v>
+        <v>10.52012538909912</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>9.530409812927246</v>
+        <v>10.01451015472412</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5.814504623413086</v>
+        <v>5.851010322570801</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>4.861351013183594</v>
+        <v>4.250696659088135</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>12.26574897766113</v>
+        <v>13.18251800537109</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>18.90688514709473</v>
+        <v>18.92146301269531</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6.423656940460205</v>
+        <v>6.337779521942139</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5.126580238342285</v>
+        <v>4.916608333587646</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>4.519901275634766</v>
+        <v>4.189223289489746</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6.120871543884277</v>
+        <v>5.859615325927734</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6.603997707366943</v>
+        <v>6.228358268737793</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7.106751918792725</v>
+        <v>7.105429172515869</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>10.43985939025879</v>
+        <v>11.59707832336426</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>8.278443336486816</v>
+        <v>8.436002731323242</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>10.38094711303711</v>
+        <v>11.10911083221436</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>12.79089641571045</v>
+        <v>14.46375751495361</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>10.76794719696045</v>
+        <v>11.2252779006958</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>15.74698162078857</v>
+        <v>15.41115760803223</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6.446595668792725</v>
+        <v>5.967560768127441</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>18.74972724914551</v>
+        <v>19.20959281921387</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>23.27029037475586</v>
+        <v>24.77530097961426</v>
       </c>
     </row>
   </sheetData>

--- a/y_prediction.xlsx
+++ b/y_prediction.xlsx
@@ -1,29 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\sherlock-final-project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25AEFFB-B94A-4950-88F5-CA3AD2CD67B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Periode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,6 +52,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -48,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -71,14 +97,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -86,13 +150,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -130,7 +202,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -164,6 +236,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -198,9 +271,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -373,43 +447,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.19726943969727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>14.197269439697269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.934562683105469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>7.9345626831054688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.874011516571045</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>5.8740115165710449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -417,15 +491,15 @@
         <v>6.663724422454834</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.561977863311768</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>7.5619778633117676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -433,7 +507,7 @@
         <v>11.536208152771</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -441,55 +515,55 @@
         <v>13.69966888427734</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.80807781219482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>10.808077812194821</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.527147769927979</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>4.5271477699279794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.923291206359863</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>5.9232912063598633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.451257228851318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>4.4512572288513184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.551928043365479</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>7.5519280433654794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.58013725280762</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>10.580137252807621</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -497,7 +571,7 @@
         <v>10.74296760559082</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -505,23 +579,23 @@
         <v>10.26916980743408</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.098263263702393</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>6.0982632637023926</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.29344367980957</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>4.2934436798095703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -529,39 +603,39 @@
         <v>13.55679416656494</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.59993553161621</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>19.599935531616211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.560589790344238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>6.5605897903442383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.0816330909729</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>5.0816330909729004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.274739742279053</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>4.2747397422790527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -569,23 +643,23 @@
         <v>6.05767822265625</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.501260280609131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>6.5012602806091309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7.32531213760376</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>7.3253121376037598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -593,31 +667,31 @@
         <v>12.09658622741699</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>8.651673316955566</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>8.6516733169555664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>11.36209487915039</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>11.362094879150391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>14.84198379516602</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>14.841983795166019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -625,39 +699,39 @@
         <v>11.55424976348877</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>16.05239677429199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>16.052396774291989</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6.340110778808594</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>6.3401107788085938</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>19.92737579345703</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>19.927375793457031</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>25.71750259399414</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>25.717502593994141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -665,39 +739,39 @@
         <v>14.04750919342041</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7.858399868011475</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>7.8583998680114746</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.839068412780762</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>5.8390684127807617</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6.640105247497559</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>6.6401052474975586</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7.540596961975098</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>7.5405969619750977</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -705,15 +779,15 @@
         <v>11.44162750244141</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>13.59792041778564</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>13.597920417785639</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -721,7 +795,7 @@
         <v>10.69638729095459</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -729,47 +803,47 @@
         <v>4.536865234375</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5.864860057830811</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>5.8648600578308114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.458763122558594</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>4.4587631225585938</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7.484989643096924</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>7.4849896430969238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>10.48827266693115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>10.488272666931151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>10.67738342285156</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>10.677383422851561</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -777,23 +851,23 @@
         <v>10.18572998046875</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6.018743515014648</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>6.0187435150146484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.29326868057251</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>4.2932686805725098</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -801,55 +875,55 @@
         <v>13.44388008117676</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>19.38541984558105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>19.385419845581051</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6.491823196411133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>6.4918231964111328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.036499500274658</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>5.0364995002746582</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>4.248396873474121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>4.2483968734741211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.995769500732422</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>5.9957695007324219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6.410431385040283</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>6.4104313850402832</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -857,7 +931,7 @@
         <v>7.259796142578125</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -865,15 +939,15 @@
         <v>11.92684364318848</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>8.585808753967285</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>8.5858087539672852</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -881,7 +955,7 @@
         <v>11.28206729888916</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -889,15 +963,15 @@
         <v>14.72089862823486</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>11.45261573791504</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>11.452615737915041</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -905,15 +979,15 @@
         <v>15.84002017974854</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6.196976661682129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>6.1969766616821289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -921,55 +995,55 @@
         <v>19.68788909912109</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>25.40290832519531</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>25.402908325195309</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>13.89502143859863</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>13.895021438598629</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7.770692825317383</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>7.7706928253173828</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5.808511734008789</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>5.8085117340087891</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6.605836868286133</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>6.6058368682861328</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7.507067203521729</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>7.5070672035217294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -977,15 +1051,15 @@
         <v>11.33576107025146</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>13.48910808563232</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>13.489108085632321</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -993,39 +1067,39 @@
         <v>10.56950664520264</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>4.533520221710205</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>4.5335202217102051</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5.803475379943848</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>5.8034753799438477</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.458601474761963</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>4.4586014747619629</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7.420427799224854</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>7.4204277992248544</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1033,15 +1107,15 @@
         <v>10.39489078521729</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>10.60312271118164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>10.603122711181641</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1049,7 +1123,7 @@
         <v>10.1016731262207</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1057,79 +1131,79 @@
         <v>5.935788631439209</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4.278801918029785</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>4.2788019180297852</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>13.31656265258789</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>13.316562652587891</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>19.15806579589844</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>19.158065795898441</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6.417155742645264</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>6.4171557426452637</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4.981106281280518</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>4.9811062812805176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>4.218957424163818</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>4.2189574241638184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5.928547859191895</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>5.9285478591918954</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6.316637992858887</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>6.3166379928588867</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7.186127662658691</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>7.1861276626586914</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1137,31 +1211,31 @@
         <v>11.76066780090332</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>8.511568069458008</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>8.5115680694580078</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>11.19528484344482</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>11.195284843444821</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>14.59385108947754</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>14.593851089477541</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -1169,23 +1243,23 @@
         <v>11.34084892272949</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>15.6251916885376</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>15.625191688537599</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6.07497501373291</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>6.0749750137329102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -1193,47 +1267,47 @@
         <v>19.44630241394043</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>25.08788681030273</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>25.087886810302731</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>13.73633766174316</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>13.736337661743161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7.671136379241943</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>7.6711363792419434</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5.777669906616211</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>5.7776699066162109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6.559080600738525</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>6.5590806007385254</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -1241,7 +1315,7 @@
         <v>7.459660530090332</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -1249,7 +1323,7 @@
         <v>11.21639442443848</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -1257,23 +1331,23 @@
         <v>13.36867618560791</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>10.42665672302246</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>10.426656723022459</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>4.514937877655029</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>4.5149378776550293</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -1281,15 +1355,15 @@
         <v>5.735990047454834</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>4.447064876556396</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>4.4470648765563956</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -1297,47 +1371,47 @@
         <v>7.355311393737793</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>10.29762840270996</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>10.297628402709959</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>10.52012538909912</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>10.520125389099119</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>10.01451015472412</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>10.014510154724119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5.851010322570801</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>5.8510103225708008</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>4.250696659088135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>4.2506966590881348</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -1345,47 +1419,47 @@
         <v>13.18251800537109</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>18.92146301269531</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>18.921463012695309</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6.337779521942139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>6.3377795219421387</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>4.916608333587646</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>4.9166083335876456</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>4.189223289489746</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>4.1892232894897461</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5.859615325927734</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>5.8596153259277344</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -1393,15 +1467,15 @@
         <v>6.228358268737793</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7.105429172515869</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>7.1054291725158691</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -1409,23 +1483,23 @@
         <v>11.59707832336426</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>8.436002731323242</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>8.4360027313232422</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>11.10911083221436</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>11.109110832214361</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -1433,15 +1507,15 @@
         <v>14.46375751495361</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>11.2252779006958</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>11.225277900695801</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -1449,30 +1523,956 @@
         <v>15.41115760803223</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5.967560768127441</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>5.9675607681274414</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>19.20959281921387</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>19.209592819213871</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>24.77530097961426</v>
-      </c>
-    </row>
+        <v>24.775300979614261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D8D74E-8425-428D-9850-E7B7E25AF9AB}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>14.197269439697269</v>
+      </c>
+      <c r="C2" s="5">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4">
+        <v>14.04750919342041</v>
+      </c>
+      <c r="E2" s="5">
+        <v>69</v>
+      </c>
+      <c r="F2" s="4">
+        <v>13.895021438598629</v>
+      </c>
+      <c r="G2" s="5">
+        <v>103</v>
+      </c>
+      <c r="H2" s="4">
+        <v>13.736337661743161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>7.9345626831054688</v>
+      </c>
+      <c r="C3" s="5">
+        <v>36</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7.8583998680114746</v>
+      </c>
+      <c r="E3" s="5">
+        <v>70</v>
+      </c>
+      <c r="F3" s="4">
+        <v>7.7706928253173828</v>
+      </c>
+      <c r="G3" s="5">
+        <v>104</v>
+      </c>
+      <c r="H3" s="4">
+        <v>7.6711363792419434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5.8740115165710449</v>
+      </c>
+      <c r="C4" s="5">
+        <v>37</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5.8390684127807617</v>
+      </c>
+      <c r="E4" s="5">
+        <v>71</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5.8085117340087891</v>
+      </c>
+      <c r="G4" s="5">
+        <v>105</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5.7776699066162109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6.663724422454834</v>
+      </c>
+      <c r="C5" s="5">
+        <v>38</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6.6401052474975586</v>
+      </c>
+      <c r="E5" s="5">
+        <v>72</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6.6058368682861328</v>
+      </c>
+      <c r="G5" s="5">
+        <v>106</v>
+      </c>
+      <c r="H5" s="4">
+        <v>6.5590806007385254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7.5619778633117676</v>
+      </c>
+      <c r="C6" s="5">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7.5405969619750977</v>
+      </c>
+      <c r="E6" s="5">
+        <v>73</v>
+      </c>
+      <c r="F6" s="4">
+        <v>7.5070672035217294</v>
+      </c>
+      <c r="G6" s="5">
+        <v>107</v>
+      </c>
+      <c r="H6" s="4">
+        <v>7.459660530090332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>11.536208152771</v>
+      </c>
+      <c r="C7" s="5">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4">
+        <v>11.44162750244141</v>
+      </c>
+      <c r="E7" s="5">
+        <v>74</v>
+      </c>
+      <c r="F7" s="4">
+        <v>11.33576107025146</v>
+      </c>
+      <c r="G7" s="5">
+        <v>108</v>
+      </c>
+      <c r="H7" s="4">
+        <v>11.21639442443848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>13.69966888427734</v>
+      </c>
+      <c r="C8" s="5">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4">
+        <v>13.597920417785639</v>
+      </c>
+      <c r="E8" s="5">
+        <v>75</v>
+      </c>
+      <c r="F8" s="4">
+        <v>13.489108085632321</v>
+      </c>
+      <c r="G8" s="5">
+        <v>109</v>
+      </c>
+      <c r="H8" s="4">
+        <v>13.36867618560791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>10.808077812194821</v>
+      </c>
+      <c r="C9" s="5">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10.69638729095459</v>
+      </c>
+      <c r="E9" s="5">
+        <v>76</v>
+      </c>
+      <c r="F9" s="4">
+        <v>10.56950664520264</v>
+      </c>
+      <c r="G9" s="5">
+        <v>110</v>
+      </c>
+      <c r="H9" s="4">
+        <v>10.426656723022459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4.5271477699279794</v>
+      </c>
+      <c r="C10" s="5">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4.536865234375</v>
+      </c>
+      <c r="E10" s="5">
+        <v>77</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4.5335202217102051</v>
+      </c>
+      <c r="G10" s="5">
+        <v>111</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4.5149378776550293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5.9232912063598633</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5.8648600578308114</v>
+      </c>
+      <c r="E11" s="5">
+        <v>78</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5.8034753799438477</v>
+      </c>
+      <c r="G11" s="5">
+        <v>112</v>
+      </c>
+      <c r="H11" s="4">
+        <v>5.735990047454834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4.4512572288513184</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4.4587631225585938</v>
+      </c>
+      <c r="E12" s="5">
+        <v>79</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4.4586014747619629</v>
+      </c>
+      <c r="G12" s="5">
+        <v>113</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4.4470648765563956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>7.5519280433654794</v>
+      </c>
+      <c r="C13" s="5">
+        <v>46</v>
+      </c>
+      <c r="D13" s="4">
+        <v>7.4849896430969238</v>
+      </c>
+      <c r="E13" s="5">
+        <v>80</v>
+      </c>
+      <c r="F13" s="4">
+        <v>7.4204277992248544</v>
+      </c>
+      <c r="G13" s="5">
+        <v>114</v>
+      </c>
+      <c r="H13" s="4">
+        <v>7.355311393737793</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10.580137252807621</v>
+      </c>
+      <c r="C14" s="5">
+        <v>47</v>
+      </c>
+      <c r="D14" s="4">
+        <v>10.488272666931151</v>
+      </c>
+      <c r="E14" s="5">
+        <v>81</v>
+      </c>
+      <c r="F14" s="4">
+        <v>10.39489078521729</v>
+      </c>
+      <c r="G14" s="5">
+        <v>115</v>
+      </c>
+      <c r="H14" s="4">
+        <v>10.297628402709959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>10.74296760559082</v>
+      </c>
+      <c r="C15" s="5">
+        <v>48</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10.677383422851561</v>
+      </c>
+      <c r="E15" s="5">
+        <v>82</v>
+      </c>
+      <c r="F15" s="4">
+        <v>10.603122711181641</v>
+      </c>
+      <c r="G15" s="5">
+        <v>116</v>
+      </c>
+      <c r="H15" s="4">
+        <v>10.520125389099119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10.26916980743408</v>
+      </c>
+      <c r="C16" s="5">
+        <v>49</v>
+      </c>
+      <c r="D16" s="4">
+        <v>10.18572998046875</v>
+      </c>
+      <c r="E16" s="5">
+        <v>83</v>
+      </c>
+      <c r="F16" s="4">
+        <v>10.1016731262207</v>
+      </c>
+      <c r="G16" s="5">
+        <v>117</v>
+      </c>
+      <c r="H16" s="4">
+        <v>10.014510154724119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>6.0982632637023926</v>
+      </c>
+      <c r="C17" s="5">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4">
+        <v>6.0187435150146484</v>
+      </c>
+      <c r="E17" s="5">
+        <v>84</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5.935788631439209</v>
+      </c>
+      <c r="G17" s="5">
+        <v>118</v>
+      </c>
+      <c r="H17" s="4">
+        <v>5.8510103225708008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>4.2934436798095703</v>
+      </c>
+      <c r="C18" s="5">
+        <v>51</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4.2932686805725098</v>
+      </c>
+      <c r="E18" s="5">
+        <v>85</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4.2788019180297852</v>
+      </c>
+      <c r="G18" s="5">
+        <v>119</v>
+      </c>
+      <c r="H18" s="4">
+        <v>4.2506966590881348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>13.55679416656494</v>
+      </c>
+      <c r="C19" s="5">
+        <v>52</v>
+      </c>
+      <c r="D19" s="4">
+        <v>13.44388008117676</v>
+      </c>
+      <c r="E19" s="5">
+        <v>86</v>
+      </c>
+      <c r="F19" s="4">
+        <v>13.316562652587891</v>
+      </c>
+      <c r="G19" s="5">
+        <v>120</v>
+      </c>
+      <c r="H19" s="4">
+        <v>13.18251800537109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>19.599935531616211</v>
+      </c>
+      <c r="C20" s="5">
+        <v>53</v>
+      </c>
+      <c r="D20" s="4">
+        <v>19.385419845581051</v>
+      </c>
+      <c r="E20" s="5">
+        <v>87</v>
+      </c>
+      <c r="F20" s="4">
+        <v>19.158065795898441</v>
+      </c>
+      <c r="G20" s="5">
+        <v>121</v>
+      </c>
+      <c r="H20" s="4">
+        <v>18.921463012695309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>6.5605897903442383</v>
+      </c>
+      <c r="C21" s="5">
+        <v>54</v>
+      </c>
+      <c r="D21" s="4">
+        <v>6.4918231964111328</v>
+      </c>
+      <c r="E21" s="5">
+        <v>88</v>
+      </c>
+      <c r="F21" s="4">
+        <v>6.4171557426452637</v>
+      </c>
+      <c r="G21" s="5">
+        <v>122</v>
+      </c>
+      <c r="H21" s="4">
+        <v>6.3377795219421387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5.0816330909729004</v>
+      </c>
+      <c r="C22" s="5">
+        <v>55</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5.0364995002746582</v>
+      </c>
+      <c r="E22" s="5">
+        <v>89</v>
+      </c>
+      <c r="F22" s="4">
+        <v>4.9811062812805176</v>
+      </c>
+      <c r="G22" s="5">
+        <v>123</v>
+      </c>
+      <c r="H22" s="4">
+        <v>4.9166083335876456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>4.2747397422790527</v>
+      </c>
+      <c r="C23" s="5">
+        <v>56</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4.2483968734741211</v>
+      </c>
+      <c r="E23" s="5">
+        <v>90</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4.2189574241638184</v>
+      </c>
+      <c r="G23" s="5">
+        <v>124</v>
+      </c>
+      <c r="H23" s="4">
+        <v>4.1892232894897461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>6.05767822265625</v>
+      </c>
+      <c r="C24" s="5">
+        <v>57</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5.9957695007324219</v>
+      </c>
+      <c r="E24" s="5">
+        <v>91</v>
+      </c>
+      <c r="F24" s="4">
+        <v>5.9285478591918954</v>
+      </c>
+      <c r="G24" s="5">
+        <v>125</v>
+      </c>
+      <c r="H24" s="4">
+        <v>5.8596153259277344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>6.5012602806091309</v>
+      </c>
+      <c r="C25" s="5">
+        <v>58</v>
+      </c>
+      <c r="D25" s="4">
+        <v>6.4104313850402832</v>
+      </c>
+      <c r="E25" s="5">
+        <v>92</v>
+      </c>
+      <c r="F25" s="4">
+        <v>6.3166379928588867</v>
+      </c>
+      <c r="G25" s="5">
+        <v>126</v>
+      </c>
+      <c r="H25" s="4">
+        <v>6.228358268737793</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>7.3253121376037598</v>
+      </c>
+      <c r="C26" s="5">
+        <v>59</v>
+      </c>
+      <c r="D26" s="4">
+        <v>7.259796142578125</v>
+      </c>
+      <c r="E26" s="5">
+        <v>93</v>
+      </c>
+      <c r="F26" s="4">
+        <v>7.1861276626586914</v>
+      </c>
+      <c r="G26" s="5">
+        <v>127</v>
+      </c>
+      <c r="H26" s="4">
+        <v>7.1054291725158691</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>12.09658622741699</v>
+      </c>
+      <c r="C27" s="5">
+        <v>60</v>
+      </c>
+      <c r="D27" s="4">
+        <v>11.92684364318848</v>
+      </c>
+      <c r="E27" s="5">
+        <v>94</v>
+      </c>
+      <c r="F27" s="4">
+        <v>11.76066780090332</v>
+      </c>
+      <c r="G27" s="5">
+        <v>128</v>
+      </c>
+      <c r="H27" s="4">
+        <v>11.59707832336426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>8.6516733169555664</v>
+      </c>
+      <c r="C28" s="5">
+        <v>61</v>
+      </c>
+      <c r="D28" s="4">
+        <v>8.5858087539672852</v>
+      </c>
+      <c r="E28" s="5">
+        <v>95</v>
+      </c>
+      <c r="F28" s="4">
+        <v>8.5115680694580078</v>
+      </c>
+      <c r="G28" s="5">
+        <v>129</v>
+      </c>
+      <c r="H28" s="4">
+        <v>8.4360027313232422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>11.362094879150391</v>
+      </c>
+      <c r="C29" s="5">
+        <v>62</v>
+      </c>
+      <c r="D29" s="4">
+        <v>11.28206729888916</v>
+      </c>
+      <c r="E29" s="5">
+        <v>96</v>
+      </c>
+      <c r="F29" s="4">
+        <v>11.195284843444821</v>
+      </c>
+      <c r="G29" s="5">
+        <v>130</v>
+      </c>
+      <c r="H29" s="4">
+        <v>11.109110832214361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>14.841983795166019</v>
+      </c>
+      <c r="C30" s="5">
+        <v>63</v>
+      </c>
+      <c r="D30" s="4">
+        <v>14.72089862823486</v>
+      </c>
+      <c r="E30" s="5">
+        <v>97</v>
+      </c>
+      <c r="F30" s="4">
+        <v>14.593851089477541</v>
+      </c>
+      <c r="G30" s="5">
+        <v>131</v>
+      </c>
+      <c r="H30" s="4">
+        <v>14.46375751495361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>11.55424976348877</v>
+      </c>
+      <c r="C31" s="5">
+        <v>64</v>
+      </c>
+      <c r="D31" s="4">
+        <v>11.452615737915041</v>
+      </c>
+      <c r="E31" s="5">
+        <v>98</v>
+      </c>
+      <c r="F31" s="4">
+        <v>11.34084892272949</v>
+      </c>
+      <c r="G31" s="5">
+        <v>132</v>
+      </c>
+      <c r="H31" s="4">
+        <v>11.225277900695801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>16.052396774291989</v>
+      </c>
+      <c r="C32" s="5">
+        <v>65</v>
+      </c>
+      <c r="D32" s="4">
+        <v>15.84002017974854</v>
+      </c>
+      <c r="E32" s="5">
+        <v>99</v>
+      </c>
+      <c r="F32" s="4">
+        <v>15.625191688537599</v>
+      </c>
+      <c r="G32" s="5">
+        <v>133</v>
+      </c>
+      <c r="H32" s="4">
+        <v>15.41115760803223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>6.3401107788085938</v>
+      </c>
+      <c r="C33" s="5">
+        <v>66</v>
+      </c>
+      <c r="D33" s="4">
+        <v>6.1969766616821289</v>
+      </c>
+      <c r="E33" s="5">
+        <v>100</v>
+      </c>
+      <c r="F33" s="4">
+        <v>6.0749750137329102</v>
+      </c>
+      <c r="G33" s="5">
+        <v>134</v>
+      </c>
+      <c r="H33" s="4">
+        <v>5.9675607681274414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>19.927375793457031</v>
+      </c>
+      <c r="C34" s="5">
+        <v>67</v>
+      </c>
+      <c r="D34" s="4">
+        <v>19.68788909912109</v>
+      </c>
+      <c r="E34" s="5">
+        <v>101</v>
+      </c>
+      <c r="F34" s="4">
+        <v>19.44630241394043</v>
+      </c>
+      <c r="G34" s="5">
+        <v>135</v>
+      </c>
+      <c r="H34" s="4">
+        <v>19.209592819213871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>25.717502593994141</v>
+      </c>
+      <c r="C35" s="3">
+        <v>68</v>
+      </c>
+      <c r="D35" s="2">
+        <v>25.402908325195309</v>
+      </c>
+      <c r="E35" s="3">
+        <v>102</v>
+      </c>
+      <c r="F35" s="2">
+        <v>25.087886810302731</v>
+      </c>
+      <c r="G35" s="3">
+        <v>136</v>
+      </c>
+      <c r="H35" s="2">
+        <v>24.775300979614261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
